--- a/Documents/Tests/Tests.xlsx
+++ b/Documents/Tests/Tests.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Challenger-of-DEMOnic-City\Documents\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5B229-E7C1-483B-A716-1C25EB420A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,311 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+  <si>
+    <t>Tesztelési környezet:</t>
+  </si>
+  <si>
+    <t>CPU:</t>
+  </si>
+  <si>
+    <t>GPU:</t>
+  </si>
+  <si>
+    <t>RAM:</t>
+  </si>
+  <si>
+    <t>Display:</t>
+  </si>
+  <si>
+    <t>1080p 144Hz</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>Nvidia RTX 2060 (6GB) Mobile</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4800h</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming A15</t>
+  </si>
+  <si>
+    <t>Teszt</t>
+  </si>
+  <si>
+    <t>Teszt eset</t>
+  </si>
+  <si>
+    <t>Elvárt eredmény</t>
+  </si>
+  <si>
+    <t>Kapott eredmény</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Megfelel-e?</t>
+  </si>
+  <si>
+    <t>Regisztráció</t>
+  </si>
+  <si>
+    <t>Bejelentkezés</t>
+  </si>
+  <si>
+    <t>Menü</t>
+  </si>
+  <si>
+    <t>Belépés után a menübe enged-e</t>
+  </si>
+  <si>
+    <t>Kijelentkezés gomb vissza visz-e a bejelentkeztéshez?</t>
+  </si>
+  <si>
+    <t>A verseny választóba ki/be lehet lépni</t>
+  </si>
+  <si>
+    <t>Az irányítás menübe ki/be lehet lépni</t>
+  </si>
+  <si>
+    <t>A ranglista választóba ki/be lehet lépni</t>
+  </si>
+  <si>
+    <t>Kilépés gombra kilép-e</t>
+  </si>
+  <si>
+    <t>Az AroundAround versenyt választva átvált-e a verseny-re</t>
+  </si>
+  <si>
+    <t>Az Peer2Peer versenyt választva átvált-e a verseny-re</t>
+  </si>
+  <si>
+    <t>Verseny</t>
+  </si>
+  <si>
+    <t>Az AroundAround ranglistát kiválasztva megjelenít-e a ranglistát</t>
+  </si>
+  <si>
+    <t>A ranglista betöltésére megjeleníti-e az AroundAround ranglistát</t>
+  </si>
+  <si>
+    <t>Az Peer2Peer ranglistát kiválasztva megjelenít-e a ranglistát</t>
+  </si>
+  <si>
+    <t>A ranglista betöltésére megjeleníti-e az Peer2Peer ranglistát</t>
+  </si>
+  <si>
+    <t>Verseny indításkor elindul-e az idő</t>
+  </si>
+  <si>
+    <t>Verseny befejezésével megáll-e az idő?</t>
+  </si>
+  <si>
+    <t>Verserny befejezésével az adatbázisba kerül-e a rekord</t>
+  </si>
+  <si>
+    <t>Verseny indítása után képes mozogni a játékos</t>
+  </si>
+  <si>
+    <t>Rossz checkpoint-on áthaladva eltűnik-e a checkpoint</t>
+  </si>
+  <si>
+    <t>Resume menü-ből vissza lehet-e lépni a menübe</t>
+  </si>
+  <si>
+    <t>Finish menü-ből vissza lehet-e lépni a menübe</t>
+  </si>
+  <si>
+    <t>Visszenged</t>
+  </si>
+  <si>
+    <t>Visszaengedett</t>
+  </si>
+  <si>
+    <t>Vissza visz</t>
+  </si>
+  <si>
+    <t>Vissza vitt</t>
+  </si>
+  <si>
+    <t>Ki/be lehet lépni</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>Átválta a megfelelő versenyre</t>
+  </si>
+  <si>
+    <t>Átvált a megfelelő versenyre</t>
+  </si>
+  <si>
+    <t>Megjeleníti a ranglista menüjét</t>
+  </si>
+  <si>
+    <t>Nem jelenít meg semmyilen rekordot</t>
+  </si>
+  <si>
+    <t>Kilép a játékból</t>
+  </si>
+  <si>
+    <t>Betölti a verseny legjobb játékosainak rekodjait</t>
+  </si>
+  <si>
+    <t>Nem</t>
+  </si>
+  <si>
+    <t>A számláló elindul</t>
+  </si>
+  <si>
+    <t>A játékos képes mozogni</t>
+  </si>
+  <si>
+    <t>Az idő mérése megáll</t>
+  </si>
+  <si>
+    <t>hozzáadja-e az adott játékos rekordját a megfelelő versenyhez kötve</t>
+  </si>
+  <si>
+    <t>Resume menü ki/be kapcsolható</t>
+  </si>
+  <si>
+    <t>Gombnyomásra meg illetve eltűnik a menü</t>
+  </si>
+  <si>
+    <t>Resume menü-ből újra lehet-e indítani a versenyt</t>
+  </si>
+  <si>
+    <t>Finish menüből újra lehet-e indítani a versenyt</t>
+  </si>
+  <si>
+    <t>Azonnal újra indul  a verseny</t>
+  </si>
+  <si>
+    <t>Vissza lép a menübe</t>
+  </si>
+  <si>
+    <t>Finish menü ki/be kapcsolható</t>
+  </si>
+  <si>
+    <t>Nem tűnik- el a checkpoint</t>
+  </si>
+  <si>
+    <t>Jó checkpoint-on áthaladva eltűnik-e a checkpoint</t>
+  </si>
+  <si>
+    <t>Eltűnik- el a checkpoint</t>
+  </si>
+  <si>
+    <t>Nem menti a rekordot</t>
+  </si>
+  <si>
+    <t>Új kör kezdése kor a checkpoint-ok vissza kerülnek</t>
+  </si>
+  <si>
+    <t>Új kör kezdetekor vissza kerülnek a checkpoint-ok</t>
+  </si>
+  <si>
+    <t>A verseny befejezésévek megjelenik a menü</t>
+  </si>
+  <si>
+    <t>Felveszi a játkost az adatbázisba</t>
+  </si>
+  <si>
+    <t>Nem veszi fel a játkost az adatbázisba</t>
+  </si>
+  <si>
+    <t>Regisztárlja-e az új játékost (Firstname: Tamás Lastname: Dezső username: Player1 email: player1@gmail.com jelszó: 12345678 jelszó megerősítés:12345678</t>
+  </si>
+  <si>
+    <t>Van-e már ezzel a felhasználó névvel játékos (Firstname: Tamás Lastname: Dezső username: Player1 email: player1@gmail.com jelszó: 12345678 jelszó megerősítés:12345678</t>
+  </si>
+  <si>
+    <t>Belépés hibás adatokkal</t>
+  </si>
+  <si>
+    <t>Belépés hibás felhasználó névvel</t>
+  </si>
+  <si>
+    <t>Belépés hibás jelszóval</t>
+  </si>
+  <si>
+    <t>Belépés adatok nélkül?</t>
+  </si>
+  <si>
+    <t>Belépés helyes adatokkal</t>
+  </si>
+  <si>
+    <t>Belép a főmenübe</t>
+  </si>
+  <si>
+    <t>Belépés menün marad</t>
+  </si>
+  <si>
+    <t>Nincs minden mező kitöltve</t>
+  </si>
+  <si>
+    <t>A jelszó hossza megfelel-e (Firstname: Tamás Lastname: Dezső username: Player2 email: player@gmail.com jelszó: 1234567 jelszó megerősítés:1234567</t>
+  </si>
+  <si>
+    <t>A jelszó nem egyezik meg az ellenörző jelszóval (Firstname: Tamás Lastname: Dezső username: Player3 email: player2@gmail.com jelszó: 123456789 jelszó megerősítés:1234567</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -45,15 +350,424 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1044,717 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="46.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Tests/Tests.xlsx
+++ b/Documents/Tests/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Challenger-of-DEMOnic-City\Documents\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5B229-E7C1-483B-A716-1C25EB420A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE17706E-4FB6-435D-B07C-6609C5FBCA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>Tesztelési környezet:</t>
   </si>
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -743,6 +743,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,16 +765,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -780,6 +787,461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E784254F-72BF-C2CB-97DD-722AD74858DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367553" y="10865224"/>
+          <a:ext cx="7769711" cy="4289499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Kép 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68093657-1283-0365-A831-5DD2EC71D9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367553" y="15347576"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>68917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Kép 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACD283B-EE73-9099-2FFA-3DE589BAB3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367553" y="20009224"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Kép 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063BC887-AA90-4BAD-429A-0544F6992E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367553" y="24491576"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Kép 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1203DF47-EC86-B289-1F22-BAA3545DC6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367553" y="28973929"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Kép 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC8EFC3-A3D6-869C-397A-59B4A26A2BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367553" y="33456282"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Kép 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C4008C-E93F-7F51-A8F0-D10616AF1BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="370114" y="39166800"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>115660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Kép 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F26479E-AD36-E4DE-ECCA-9DA975F46786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="370114" y="43608171"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Kép 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE55121-C51A-12B6-05ED-D9EB408A8FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="365760" y="47708820"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,20 +1507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BB252" sqref="BB252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -1079,23 +1542,23 @@
       <c r="E1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="27" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="G2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -1207,13 +1670,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -1234,7 +1697,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>86</v>
@@ -1251,7 +1714,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>87</v>
@@ -1268,7 +1731,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>88</v>
@@ -1285,7 +1748,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>89</v>
@@ -1301,13 +1764,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -1514,13 +1977,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
@@ -1566,7 +2029,7 @@
       <c r="C30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="20" t="s">
@@ -1677,7 +2140,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>49</v>
@@ -1744,8 +2207,83 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="33"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" s="35"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C243" s="35"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1756,5 +2294,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>